--- a/Git Commands.xlsx
+++ b/Git Commands.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Git commands frequently used and good to know</t>
   </si>
@@ -221,6 +221,30 @@
   </si>
   <si>
     <t>Show only my commits</t>
+  </si>
+  <si>
+    <t>git branch &lt;new branch&gt;</t>
+  </si>
+  <si>
+    <t>git branch -d &lt;new branch&gt;</t>
+  </si>
+  <si>
+    <t>deletes &lt;new branch&gt;</t>
+  </si>
+  <si>
+    <t>creates &lt;new branch&gt;</t>
+  </si>
+  <si>
+    <t>git checkout &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>switches to &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>git checkout -b &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>creates and then switches to &lt;branch&gt;</t>
   </si>
 </sst>
 </file>
@@ -597,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,6 +918,38 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
